--- a/test-result_PROD_CDM.xlsx
+++ b/test-result_PROD_CDM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="14370" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="14310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="log-virtuoso_PROD_CDM" sheetId="1" r:id="rId1"/>
@@ -335,11 +335,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52209536"/>
-        <c:axId val="52211072"/>
+        <c:axId val="195603072"/>
+        <c:axId val="196239744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52209536"/>
+        <c:axId val="195603072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52211072"/>
+        <c:crossAx val="196239744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -357,7 +357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52211072"/>
+        <c:axId val="196239744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52209536"/>
+        <c:crossAx val="195603072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -604,11 +604,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52230016"/>
-        <c:axId val="52231552"/>
+        <c:axId val="196084864"/>
+        <c:axId val="196086400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52230016"/>
+        <c:axId val="196084864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52231552"/>
+        <c:crossAx val="196086400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -626,7 +626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52231552"/>
+        <c:axId val="196086400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -639,7 +639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52230016"/>
+        <c:crossAx val="196084864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -745,32 +745,14 @@
           <cell r="I2">
             <v>0</v>
           </cell>
-          <cell r="J2">
-            <v>0</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="I3">
             <v>1</v>
           </cell>
-          <cell r="J3">
-            <v>0.62400000000000011</v>
-          </cell>
-          <cell r="K3">
-            <v>14610</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>2</v>
-          </cell>
-          <cell r="J4">
-            <v>3.2000000000000001E-2</v>
-          </cell>
-          <cell r="K4">
             <v>2</v>
           </cell>
         </row>
@@ -778,99 +760,45 @@
           <cell r="I5">
             <v>3</v>
           </cell>
-          <cell r="J5">
-            <v>0.03</v>
-          </cell>
-          <cell r="K5">
-            <v>348</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="I6">
             <v>4</v>
-          </cell>
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>N/A</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
             <v>5</v>
           </cell>
-          <cell r="J7">
-            <v>5.1560000000000006</v>
-          </cell>
-          <cell r="K7">
-            <v>22</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="I8">
             <v>6</v>
-          </cell>
-          <cell r="J8">
-            <v>2.9180000000000001</v>
-          </cell>
-          <cell r="K8">
-            <v>24701</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
             <v>7</v>
           </cell>
-          <cell r="J9">
-            <v>7.9700000000000006</v>
-          </cell>
-          <cell r="K9">
-            <v>24701</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="I10">
             <v>8</v>
-          </cell>
-          <cell r="J10">
-            <v>0.02</v>
-          </cell>
-          <cell r="K10">
-            <v>70</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
             <v>9</v>
           </cell>
-          <cell r="J11">
-            <v>0.01</v>
-          </cell>
-          <cell r="K11">
-            <v>14</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="I12">
             <v>10</v>
           </cell>
-          <cell r="J12">
-            <v>0.02</v>
-          </cell>
-          <cell r="K12">
-            <v>696</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="I13">
             <v>11</v>
-          </cell>
-          <cell r="J13">
-            <v>0.152</v>
-          </cell>
-          <cell r="K13">
-            <v>3437</v>
           </cell>
         </row>
       </sheetData>
@@ -879,194 +807,12 @@
           <cell r="J2">
             <v>0.80199999999999994</v>
           </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>3.8200000000000003</v>
-          </cell>
-          <cell r="K3">
-            <v>14848</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>153.16999999999999</v>
-          </cell>
-          <cell r="K4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>24.201999999999998</v>
-          </cell>
-          <cell r="K5">
-            <v>352</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>300.202</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>N/A</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>300.32799999999997</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>N/A</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>160.82799999999997</v>
-          </cell>
-          <cell r="K8">
-            <v>24701</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>163.39000000000001</v>
-          </cell>
-          <cell r="K9">
-            <v>24701</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>3.972</v>
-          </cell>
-          <cell r="K10">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>0.16599999999999998</v>
-          </cell>
-          <cell r="K11">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>162.96800000000002</v>
-          </cell>
-          <cell r="K12">
-            <v>759</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>17.566000000000003</v>
-          </cell>
-          <cell r="K13">
-            <v>3485</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="J2">
             <v>1.0640000000000001</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>0.64399999999999991</v>
-          </cell>
-          <cell r="K3">
-            <v>14610</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>2.944</v>
-          </cell>
-          <cell r="K4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>0.10200000000000001</v>
-          </cell>
-          <cell r="K5">
-            <v>348</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>203.57599999999996</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>N/A</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>168.29</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>N/A</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>2.38</v>
-          </cell>
-          <cell r="K8">
-            <v>2647</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>2.1</v>
-          </cell>
-          <cell r="K9">
-            <v>2647</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>0.20400000000000001</v>
-          </cell>
-          <cell r="K10" t="str">
-            <v>N/A</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>0.19399999999999998</v>
-          </cell>
-          <cell r="K11">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>0.22000000000000003</v>
-          </cell>
-          <cell r="K12">
-            <v>696</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>10.818000000000001</v>
-          </cell>
-          <cell r="K13">
-            <v>3437</v>
           </cell>
         </row>
       </sheetData>
@@ -2524,7 +2270,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:D71">
     <sortCondition ref="B2:B71"/>
   </sortState>
@@ -3686,7 +3431,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A1:D70">
     <sortCondition ref="B1:B70"/>
   </sortState>
